--- a/temp_doc/DATA KELAS FIX copy.xlsx
+++ b/temp_doc/DATA KELAS FIX copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/sppth_terbaru/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEBD333-186A-FA46-9DF6-5E41FC383B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C01D52E-E1B6-C244-BF23-8A847490EB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>XI DKV 1</t>
+  </si>
+  <si>
+    <t>XII DKV 1</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,6 +478,20 @@
         <v>404</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3035148</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>505</v>
+      </c>
+    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
     </row>
